--- a/data/hotels_by_city/Houston/Houston_shard_145.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_145.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d5272077-Reviews-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-Houston-Kingwood.h6554280.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530385140636&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=86624add-97c8-42f9-acb9-f31762580787&amp;mctc=9&amp;exp_dp=122&amp;exp_ts=1530385141288&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1681 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r599982867-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>5272077</t>
+  </si>
+  <si>
+    <t>599982867</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Emergency getaway</t>
+  </si>
+  <si>
+    <t>Stayed here a couple of nights due to an emergency; our AC died. Everette was there to get us checked in and settled after midnight. He has a charming personality and is an asset to this hotel. Thanks for the excellent service Everette!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r599909541-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599909541</t>
+  </si>
+  <si>
+    <t>Very poor customer service</t>
+  </si>
+  <si>
+    <t>We decided to give this hotel another try after they overbooked and cancelled us a year and a half ago. We are good elite members and needed a hotel near humble that wasn’t “too busy”. The first room we were sent to, the air conditioner made a loud rumbling noise and the bathroom light was out... so we changed rooms. The second room, the phones in the main rooms didn’t work and if we needed to call the front desk, we had to go and use the bathroom phone ( which worked out well for us because we needed additional towels, which by the way is on my profile for check in). We waited over an hour for towels the first time and upon call back and speaking with the manager (Tara?) towels were sent up. She was professional and apologetic. The second day we were there, we had a late check out. As we walked by the front desk that morning, I confirmed with the clerk, who looked on the computer and said our check out time was 2pm. Great! At 11:55 am, there is a rapping on the door. ( just above the sign that says DO NOT DISTURB). It was housekeeping wanting to know when we are leaving. WHY wasn’t housekeeping informed we had a late check out, AND when they saw the do not disturb sign, why didn’t they call the front desk and check?? So...We decided to give this hotel another try after they overbooked and cancelled us a year and a half ago. We are good elite members and needed a hotel near humble that wasn’t “too busy”. The first room we were sent to, the air conditioner made a loud rumbling noise and the bathroom light was out... so we changed rooms. The second room, the phones in the main rooms didn’t work and if we needed to call the front desk, we had to go and use the bathroom phone ( which worked out well for us because we needed additional towels, which by the way is on my profile for check in). We waited over an hour for towels the first time and upon call back and speaking with the manager (Tara?) towels were sent up. She was professional and apologetic. The second day we were there, we had a late check out. As we walked by the front desk that morning, I confirmed with the clerk, who looked on the computer and said our check out time was 2pm. Great! At 11:55 am, there is a rapping on the door. ( just above the sign that says DO NOT DISTURB). It was housekeeping wanting to know when we are leaving. WHY wasn’t housekeeping informed we had a late check out, AND when they saw the do not disturb sign, why didn’t they call the front desk and check?? So I called the front desk and asked for the manager, this time I got “Ollie”. Ollie told me our check out time was not in the computer. Odd..... I just recently confirmed that. “OLLIE “ told me Tara wasn’t available. OLLIE didn’t know much. The cleanliness of this hotel is ok. The location is great. The staff is poor and don’t really care. That’s the impression we got from this hotel. It’s a toss up. If you stay here, just plan on people who are just here for a paycheck.MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to give this hotel another try after they overbooked and cancelled us a year and a half ago. We are good elite members and needed a hotel near humble that wasn’t “too busy”. The first room we were sent to, the air conditioner made a loud rumbling noise and the bathroom light was out... so we changed rooms. The second room, the phones in the main rooms didn’t work and if we needed to call the front desk, we had to go and use the bathroom phone ( which worked out well for us because we needed additional towels, which by the way is on my profile for check in). We waited over an hour for towels the first time and upon call back and speaking with the manager (Tara?) towels were sent up. She was professional and apologetic. The second day we were there, we had a late check out. As we walked by the front desk that morning, I confirmed with the clerk, who looked on the computer and said our check out time was 2pm. Great! At 11:55 am, there is a rapping on the door. ( just above the sign that says DO NOT DISTURB). It was housekeeping wanting to know when we are leaving. WHY wasn’t housekeeping informed we had a late check out, AND when they saw the do not disturb sign, why didn’t they call the front desk and check?? So...We decided to give this hotel another try after they overbooked and cancelled us a year and a half ago. We are good elite members and needed a hotel near humble that wasn’t “too busy”. The first room we were sent to, the air conditioner made a loud rumbling noise and the bathroom light was out... so we changed rooms. The second room, the phones in the main rooms didn’t work and if we needed to call the front desk, we had to go and use the bathroom phone ( which worked out well for us because we needed additional towels, which by the way is on my profile for check in). We waited over an hour for towels the first time and upon call back and speaking with the manager (Tara?) towels were sent up. She was professional and apologetic. The second day we were there, we had a late check out. As we walked by the front desk that morning, I confirmed with the clerk, who looked on the computer and said our check out time was 2pm. Great! At 11:55 am, there is a rapping on the door. ( just above the sign that says DO NOT DISTURB). It was housekeeping wanting to know when we are leaving. WHY wasn’t housekeeping informed we had a late check out, AND when they saw the do not disturb sign, why didn’t they call the front desk and check?? So I called the front desk and asked for the manager, this time I got “Ollie”. Ollie told me our check out time was not in the computer. Odd..... I just recently confirmed that. “OLLIE “ told me Tara wasn’t available. OLLIE didn’t know much. The cleanliness of this hotel is ok. The location is great. The staff is poor and don’t really care. That’s the impression we got from this hotel. It’s a toss up. If you stay here, just plan on people who are just here for a paycheck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r597814893-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597814893</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Wonderful time</t>
+  </si>
+  <si>
+    <t>My stay at this property was absolutely fabulous... great staff and excellent food on site. Very reasonable pricing. I would highly recommend this property to anyone looking for an excellent stay, comfortable rooms nice area to visit.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r597642780-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597642780</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>UAMCC Conference</t>
+  </si>
+  <si>
+    <t>Wonderful service is excellent we come here for events and we are greeted with excellent services they also provided us with umbrellas on a rainy day. We where allowed to do test demonstration at our events with no issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r597642522-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597642522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAMCC </t>
+  </si>
+  <si>
+    <t>Great Hotel! I recommend all to stay here if they’re ever in the Kingwood, Texas area. Very Clean and well kept! Lots of value with rooms and services. I will definitely stay with them on my next visit to Kingwood, Texas</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r597640378-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597640378</t>
+  </si>
+  <si>
+    <t>Great hotel, Amazing staff</t>
+  </si>
+  <si>
+    <t>I really enjoy the hotel and the staff is always amazing. I am slightly disappointed by the Bistro. The hours are odd and the selection isn't excellent. Don't let this reflect on the Staff though they go above and beyond to provide excellent service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r583145092-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583145092</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were there for my granddaughter's graduation - great hotel.  A newer hotel in the Kingwood area....room very spacious, clean, and comfortable.  Many restaurants close by.  Staff very congenial and helpful.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r568085123-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568085123</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>We stayed over the weekend while visiting family in the area. Due to and issue with the city (City guy was there and verified it was not a hotel issue), we had no water on night 2 of our stay. The staff was very kind and accommodating in a tough situation. Ollie (sp?) was so wonderful and kind. I have an adult handicap brother that was with us and had a bit of an accident, Ollie gave us extra bottled water to help clean him up and offered to call around and see if he could find us a shower to use. Luckily it did not come to that, but he was so kind even while other guests yelled at him. I have worked 17 years in hotels and he is by far one of the calmest under pressure that I have seen! The General Manager (wish I could remember her name) was also excellent. She obviously leads her team by example. Great staff! We will definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>We stayed over the weekend while visiting family in the area. Due to and issue with the city (City guy was there and verified it was not a hotel issue), we had no water on night 2 of our stay. The staff was very kind and accommodating in a tough situation. Ollie (sp?) was so wonderful and kind. I have an adult handicap brother that was with us and had a bit of an accident, Ollie gave us extra bottled water to help clean him up and offered to call around and see if he could find us a shower to use. Luckily it did not come to that, but he was so kind even while other guests yelled at him. I have worked 17 years in hotels and he is by far one of the calmest under pressure that I have seen! The General Manager (wish I could remember her name) was also excellent. She obviously leads her team by example. Great staff! We will definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r565617828-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565617828</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Great Hospitality and very nice roooms</t>
+  </si>
+  <si>
+    <t>Great hotel in this area.Plenty of places to go and eat within walking distance.The room was very clean and comfortable.The hospitality was very good.The lobby beautifully decorated and had a great fresh made breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r549136070-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549136070</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Charge a lot Marriott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No complimentary coffee or paper but you do get free  Marriott mediocrity.   Excellent if you love the sounds of a Freeway, or simply want to pay higher rates than other area hotels (most nearby not only have free coffee, they free breakfasts and newspapers and often even happy hour).       Breakfast prices are in line with the finest properties in downtown Houston, but served with a middle class ambience.   On the plus side, the property is new.    And Marriott is a known gauger of naturalcatastrophe victims so their stock is doing pretty good.   </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r543178663-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543178663</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Polite staff and clean rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here while visiting family for Thanksgiving. The rooms were fully stocked and very clean. Front desk staff was very polite and made sure we had everything we needed.  Food was also fantastic. Travis was a sweetheart and was diligent when preparing my food since I have an egg allergy. Thank you all for your hard work! </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r539128930-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539128930</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Bistro was an A+</t>
+  </si>
+  <si>
+    <t>It was a great experience, enjoyed my stay!! The bed was comfy and I had all my amenities I needed in the room. When I came down for breakfast there were lots of options to choose from. I got to order fresh scrambled egg and full American breakfast. A gentleman named Travis assisted me with my order and he was very friendly. I enjoyed the set up but as most new hotels they are well spaced out. Would definitely visit for my next business trip to Kingwood!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r504563741-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504563741</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Konvenient in Kingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Bistro style Marriott Courtyard in Kingwood konveniently located just off Hwy 59. Klose to other restaurants and amenities. Stayed here overnight due to Centerpoint Energy power grid issue.Everything you would expect at a newer Marriott Courtyard property. No surprises = satisfaction. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r495973804-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495973804</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Great stay in the Kingwood area</t>
+  </si>
+  <si>
+    <t>Nice modern hotel with a great lobby area to be used as a gathering place. We had three rooms for all the family to stay at and they were clean and staff was very friendly. Since this hotel is located close to our other family who lives in the area, we will always make this the place for us to stay when we visit.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r492885127-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492885127</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This was our first time staying at this hotel and found it to be very nice.  The hotel rooms was very large and the beds were very comfortable.  The only draw back and it was minor is the TV is on the small size.   The staff was very friendly and helpful.  I must add they sell Starbuck Coffee!!!!!! I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r484778787-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484778787</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Quick stay, polite staff</t>
+  </si>
+  <si>
+    <t>Checked in for a three night stay after a long drive. The staff very accommodating with suggestions for close places to eatAs soon as we got thru unpacking we had a phone call  informing us of a family emergency, that required us to return home. We rested overnight and the staff gave us no issues with a refund on the time we couldn't stay.The  room was quiet and the bed so very comfortable. Appreciated the in room coffee and fridge, since we stored some leftovers in there!Will be back.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r480771031-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480771031</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel With A Great Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here in April and found it to be very clean, comfortable and not expensive at all. Security at night was very good. The staff were very friendly and extremely helpful. I would definitely stay here again if I needed to spend the night in northwest Houston.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r474795141-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474795141</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Really nice, comfortable beds, super clean!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed only one night, but really nice &amp; beds were very comfortable. Beautiful, clean &amp; staff was very friendly &amp; courteous. Either a newly built hotel or recently remodeled. Nicely appointed with class &amp; style. Room was spacious &amp; bathroom was super clean. It's a great place to stay &amp; wish we could have stayed many more nights. Easy access to freeway, food &amp; gas. Safe &amp; lighted parking lot. Superb property for an affordable price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r464567518-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464567518</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>I Really Like This Particular Courtyard</t>
+  </si>
+  <si>
+    <t>I like this Courtyard. It is fairly new and quiet. Location is convenient, right off the freeway, and just minutes from IAH Bush Airport. Rates are very reasonable and a good value. Internet connection was fast and dependable. Staff was accommodating. Thanks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r449430741-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449430741</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>My Favorite Courtyard in Texas!</t>
+  </si>
+  <si>
+    <t>This is my favorite Courtyard property in the Houston area!!  The Front desk/hotel managers/food and bev manager/night audit are really friendly and always helpful. One of my favorite things about this property is that I get chocolates and water every time I check in. As a Marriott platinum rewards member it's nice to know that they appreciate their guests it really is the small things that sets this property apart from other Courtyard properties and the reason I will always stay at this location when I am out of town for work. The beds at this property are more comfortable than any other Courtyard property I have ever stayed at in the state of Texas and it is nice to know that I will always be able to get a good nights rest. The rooms have a comfy feel to them and are ALWAYS clean!! Nice job housekeeping!! I also really like the option to book a room with a balcony because I am able to get some fresh air at night and do not have to go down stairs. Thank You to everyone...your all pretty awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This is my favorite Courtyard property in the Houston area!!  The Front desk/hotel managers/food and bev manager/night audit are really friendly and always helpful. One of my favorite things about this property is that I get chocolates and water every time I check in. As a Marriott platinum rewards member it's nice to know that they appreciate their guests it really is the small things that sets this property apart from other Courtyard properties and the reason I will always stay at this location when I am out of town for work. The beds at this property are more comfortable than any other Courtyard property I have ever stayed at in the state of Texas and it is nice to know that I will always be able to get a good nights rest. The rooms have a comfy feel to them and are ALWAYS clean!! Nice job housekeeping!! I also really like the option to book a room with a balcony because I am able to get some fresh air at night and do not have to go down stairs. Thank You to everyone...your all pretty awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r442438148-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442438148</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Hotel is close to airport with Free Shuttle!</t>
+  </si>
+  <si>
+    <t>We were visiting some friends who lived close and they recommended this hotel which turned out to be super convenient for us. Staff is very friendly, excellent service at reception upon arrival. Rooms are very clean and cozy. Convenient shuttle service to and from airport!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r428764355-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428764355</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!</t>
+  </si>
+  <si>
+    <t>Just have to brag on this hotel!  There staff were so friendly and helpful.  I forgot mypajamas and called and spoke to KAREN she went beyond the call of duty to help locate them.  She found them and called me back and mailed them to me, I felt like the queen she treated me like royalty!  Thank you KAREN!!!!!!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r412020043-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412020043</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>A GREAT WEEK STAY!</t>
+  </si>
+  <si>
+    <t>I really like the pool and the atmosphere of the lobby! Only thing i'd say is I wish the pool was open later than 10pm. Staff was friendly no one stuck out negatively! Cierra was very friendly and fun to talk to; very reliable when you want something done!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r410132860-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410132860</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Courtyard this weekend and it was very nice.  It was very clean and new and smelled good.  Everything that we needed was provided and the people were extremely friendly and professional.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r398622029-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398622029</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel,close to the airport , shuttle was plus .Chris checked me in , very welcoming and professional , hotel is nice huge lobby , plenty of seating and space and my room was clean and modern .I will highly recommend this hotel.Was one night stay but I loved it.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r396403132-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396403132</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Great Room!</t>
+  </si>
+  <si>
+    <t>This was the first time we stayed here, but it certainly won't be the last! The staff was extremely friendly and seemed to really be glad we were there. A great start to our stay! But they were just as friendly the next morning. The room was exceptionally clean and nice and the breakfast bar area was just perfect. A great stay and we will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r394859170-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394859170</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Nice room layout</t>
+  </si>
+  <si>
+    <t>I spent 2 nights at the hotel for a business trip.  I really liked the room layout for the king bed room.  The bed faces the window which makes the room feel much more spacious.  I also really liked the decor of the room.  The staff was very helpful.  I only had one meal from the Bistro, which was the egg white frittata.  It was very good and I loved the avocado on it.  It was a nice experience over all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r380354013-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380354013</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Beautiful, relatively new, Courtyard</t>
+  </si>
+  <si>
+    <t>This 2 year old property is in a great area with many easy to get to shops, restaurants, grocery stores and gas stations.  Rooms very new and clean, some with patios. Even the mattress was thicker and nicer than the usual thin mattress you get at Marriott hotels.  Downstairs is a very nice outdoor sitting area, away from the pool area, with lots of comfortable chairs to sit in and even a fire feature.  Employees very nice.  We stayed here after all the rain had flooded many areas in Houston, but this location was not affected.  We'll definitely stay here next time we're in town.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r363544921-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363544921</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed for 3 nights and held a celebration of life in the Cowboys room. The hotel catered the food and drinks which were alright. The beds were very comfortable and everything was beautiful and clean. But the best thing was the staff! They were so kind and good to us. Cierra who works at front desk was s heaven sent angel for me. I %100 recommend staying in this hotel!! 5 stars for sure!!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r356682560-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356682560</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel just to kind of unwind from a hectic week the hotel was really nice, clean and the beds were really comfortable. The location is really nice it's easily accessible to 59/69</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350852941-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350852941</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>UAMCC Convention</t>
+  </si>
+  <si>
+    <t>Tara at Courtyard by Marriot has been extremely welcoming and attentive! Even when the mens bathroom was out of paper towels I told jer about it and she jumped right on it. That is the type of customer service that I expect BUT, rarely receive! I will stay again with my family.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350835337-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350835337</t>
+  </si>
+  <si>
+    <t>AWESOME Experience</t>
+  </si>
+  <si>
+    <t>Staying here for 4 days on a business trip and the staff is unbelievable. Specifically, Tara has been very helpful to our group as her and the staff have been helpful, courteous, and friendly. I would recommend anyone staying in the area to make this your first choice!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350834571-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350834571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place absolutely well run by the staff. The management is super accommodating. Definitely looking forward to the next conference. Great food clean rooms centralized around great restaurants. I know sonic clean USA is very impressed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350830281-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350830281</t>
+  </si>
+  <si>
+    <t>Super CustomerService Skills !</t>
+  </si>
+  <si>
+    <t>I travel to events several times a year, and haveToSay.. the culture of this hotel isOf meticulous customerService,  always smiling-friendly faces, andA real Class-Act.. Rene and Tara- We will be back with future events !Best Event venue Ever !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350829076-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350829076</t>
+  </si>
+  <si>
+    <t>Doug Ruckers power washing school</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel. Management is amazing. Thank you for making me feel comfortable. The staff was great in every area. The assistant manager was extra helpful in showing me around and making sure I knew where everything was. I would recommend this hotel to friends and family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350827453-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350827453</t>
+  </si>
+  <si>
+    <t>Power washing convention</t>
+  </si>
+  <si>
+    <t>We Stayed for two nights, from the time we checked in the staff was very friendly and smiling.clean rooms clean common areas and very friendly staff.Nice to see staff with smiles I would definitely stay here again.If your in the area for the night. This is the place!Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350824261-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350824261</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>Stayed here for a worship the staff was very helpfull with my room and the setup of our worshop. Espically liked the manager tara. She was on the spot for what ever issue s that came up. This hotel is close to many restaurants</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350823797-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350823797</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean rooms with great air conditioning. Staff is friendly and helpful. Also has a Starbucks inside hotel. Great location close to the airport and restaurants. Beds are very comfortable too.    I would stay here again vey pleased with this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350823253-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350823253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doug Rucker event </t>
+  </si>
+  <si>
+    <t>Very clean. Friendly atmosphere. Over the top meeting room. Deck people very friendly and professional. Food is very good.              as well. Would recommend to friends and out professional Thanks for having the Uamcc.org and MTPWA. and our company American Pressure Washing say with this great place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350822839-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350822839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome Place </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly recommend this hotel. It's very clean and the staff is awesome!!! I'm pleased with the cleanliness of the whole hotel. Comfortable beds, good air conditioning, good food, polite staff, clean pool definitely would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350822729-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350822729</t>
+  </si>
+  <si>
+    <t>Nice, clean room and Awesome customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean and really nice! Here for a convention and everything was great. To be honest I was a little concerned about how inexpensive the room was. Yet when I opened the door I was impressed! Very clean and modern, the bathroom is pretty cool also. If you need anything just ask for the manager, Tara, she is amazing! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350822443-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350822443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above and beyond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I actually forgot I was going in a day early but staff was friendly and understanding and went above and beyond to make sure I was accommodated for my mistake. This type of service shouldn't go unnoticed.  Thanks you for making my trip enjoyable.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350821130-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350821130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great  hotel great service great location great rooms ms. Tara an her staff  r  friendly  an fast. If ever  in Houston area  make sure it's one of your  choices of stays great for business events an conventions  ..one of best hotels I've  stayed in a while. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350820913-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350820913</t>
+  </si>
+  <si>
+    <t>Great place to stay and learn</t>
+  </si>
+  <si>
+    <t>A great place to stay.  Came for a conference at the hotel and found it to be great to stay clean great staff. Great meeting rooms  to learn in.  Easy access to food and main roads.  Enjoyed our time there fully</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350820868-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350820868</t>
+  </si>
+  <si>
+    <t>Uamcc , Doug Rucker's School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful  place, very very clean and with wonderful friendly employees. I Would  recommend this to everyone I know thats coming to this area. We didn't stay here , came for a pressure washing school ( Doug Rucker's School ) Next time we will stay here for sure. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r350818190-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350818190</t>
+  </si>
+  <si>
+    <t>UAMCC CONVENTION</t>
+  </si>
+  <si>
+    <t>Thank you Tara for your great service and all that you have done to help make this Convention possible. And thank you for great personality and for your willingness to help.You ma'am rock!This facility and the staff here have really gone above and beyond for all of us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r347768032-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347768032</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here twice.  We come through the area once or twice a month.  We used to stay at a different brand.  We decided to try something new and very glad we did.  Staff is super nice.  Our rooms are very clean.  This last trip, we opted for a room with a balcony.  Hopefully next time our stay will be longer so we can truly enjoy it.We will continue to stay at this location. The picture is the sunset from our room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r344808110-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344808110</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>I stayed overnight one night for a flight layover.  From the shuttle bus driver to the front desk staff, everyone was exceptionally welcoming and helpful.  The hotel lobby and main areas were clean and inviting.  The room was well laid out and was nicer than other 5-star hotels I have stayed at.  It was a very pleasant experience and I would not hesitate to stay there again as I travel through.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r339276488-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339276488</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely the best service I have experienced during a hotel stay.  Jordan at the front desk was an absolute delight as well as Jesse at the Bristo did a great job. I am horrible with names and these two clearly made an impression. The staff in general was very helpful. </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r331040873-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331040873</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Fine Hotel In This Area</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel and had a major meeting there. Audio-Visual equipment fine and the meeting room was excellent. Staff was very helpful and cooperative. Location is close to Bush International Airport, so very convenient for those flying in. Plenty of restaurants in nearby area. Only complaint is a system-wide complaint - Courtyard in-room toiletries barely contain one usage per container. Size appears correct, but items not filled completely. Minor annoyance. Recommend this location if working - visiting in this area.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r328608823-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328608823</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Staff &amp; Property</t>
+  </si>
+  <si>
+    <t>This hotel is clean and modern. The rooms were excellent. The best part of the stay, however, was the warm and friendly staff. The front desk manager had personality plus and made us feel very welcome. We were in the area for my Dad's 76th birthday. His comment was "That's the nicest hotel I've ever stayed in." Thank you for making it memorable! We will make this our property anytime we are back in the area.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r317764329-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317764329</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Love the staff!</t>
+  </si>
+  <si>
+    <t>I come to Texas and visit family as often as I can and I try to stay at different places so I called and inquired about some information for a trip and Sierra gave me excellent customer service and was very professional. A warm welcome for sure.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r316698613-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316698613</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Wonderful staff and friendly staff</t>
+  </si>
+  <si>
+    <t>Alicia, Cierra, John, Esteban, and Wayne(? chef-bartender) really epitomize great service and what it means to go above and beyond to satisfy their clients.I've stayed in the JW Marriott in L.A. and the Fairmont in SF and the staff of the Courtyard Kingwood is equal to, friendlier, and even more courteous than those at the high priced hotels!If I visit the Kingwood area again---this is my hotel!  The rooms were clean and the king size bed was great!  If you want a nice and quiet sleep, be sure to get a room away from the side that's facing the highway.  They have free wifi and a technology center near the lobby. Love, love, love this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alicia, Cierra, John, Esteban, and Wayne(? chef-bartender) really epitomize great service and what it means to go above and beyond to satisfy their clients.I've stayed in the JW Marriott in L.A. and the Fairmont in SF and the staff of the Courtyard Kingwood is equal to, friendlier, and even more courteous than those at the high priced hotels!If I visit the Kingwood area again---this is my hotel!  The rooms were clean and the king size bed was great!  If you want a nice and quiet sleep, be sure to get a room away from the side that's facing the highway.  They have free wifi and a technology center near the lobby. Love, love, love this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r312049663-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312049663</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Good for Kingwood Area</t>
+  </si>
+  <si>
+    <t>This is a standard hotel for those occasions you simply have to stay overnight. The rooms are spacious. The desk is portable so you can move it around to get comfortable for working. The breakfast area is basic and on the night I was there, they had run out of egg whites! But the rest was just fine. The parking is exposed, and there wasn't much evidence of security; but I was assured that they have extensive cameras! I'd definitely stay again if I'm in the Kingwood area of Houston, with an early start. Reasonable value.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Andrew E, Manager at Courtyard Houston Kingwood, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>This is a standard hotel for those occasions you simply have to stay overnight. The rooms are spacious. The desk is portable so you can move it around to get comfortable for working. The breakfast area is basic and on the night I was there, they had run out of egg whites! But the rest was just fine. The parking is exposed, and there wasn't much evidence of security; but I was assured that they have extensive cameras! I'd definitely stay again if I'm in the Kingwood area of Houston, with an early start. Reasonable value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r302297981-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302297981</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>My husband has to go to Kingwood for check=ups after back surgury at the Orthopedic Diagnostic Center.  We have stayed here 4 times this year.  We have never been unsatisfied.  The hotel is very clean, rooms are very clean and comfortable,  and the customer service has been absolutely awesome.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r297259719-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297259719</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Platinum Premier Status isn't acknowledged...</t>
+  </si>
+  <si>
+    <t>As a PLATINUM PREMIER Elite member (top 3% of Paltinum Elites), I was told that the staff at this hotel has the most comprehensive training in how to create a customized and elegant experience for its most loyal clients. I would say that hasn't held true with my experience and I just arrived. I have two business colleagues that frequent this specific hotel because they are treated like "royalty" from the time they walk in the door until the time they leave, as they should considering how many nights they travel away from their families. So I excitedly walked into the hotel today and was greeted by....no one. There was no one standing at the reception area. Strike 1.  Then the Marriott Associate asked for my name, which I gladly shared, and I waited with anticipation for the enthusiastic "Welcome to our hotel and thank you SO MUCH for choosing us today. As a Platinum Premier member we know you could choose so many different hotel brands and we appreciate you choosing us!"  What I received instead was "here is your room key". Strike 2.  Needless to say,after taking a red eye from work overseas to get here for work tomorrow, I responded quite sarcastically. My first words were "Have I been upgraded for my stay" to which I received the reply "No, we have you in a King room."  I shared that there must be some suites available and...As a PLATINUM PREMIER Elite member (top 3% of Paltinum Elites), I was told that the staff at this hotel has the most comprehensive training in how to create a customized and elegant experience for its most loyal clients. I would say that hasn't held true with my experience and I just arrived. I have two business colleagues that frequent this specific hotel because they are treated like "royalty" from the time they walk in the door until the time they leave, as they should considering how many nights they travel away from their families. So I excitedly walked into the hotel today and was greeted by....no one. There was no one standing at the reception area. Strike 1.  Then the Marriott Associate asked for my name, which I gladly shared, and I waited with anticipation for the enthusiastic "Welcome to our hotel and thank you SO MUCH for choosing us today. As a Platinum Premier member we know you could choose so many different hotel brands and we appreciate you choosing us!"  What I received instead was "here is your room key". Strike 2.  Needless to say,after taking a red eye from work overseas to get here for work tomorrow, I responded quite sarcastically. My first words were "Have I been upgraded for my stay" to which I received the reply "No, we have you in a King room."  I shared that there must be some suites available and she shared none were ready yet. I told her I would wait until one was ready.   Magically, a king suite room appeared. I told her I shouldn't have to ask for an upgrade and shared the experiences my colleagues had at this hotel were very different than what I was experiencing. Needless to say, I will be calling my Platinum guest services tomorrow to file a formal complaint.  Oh, but right before I was walking away, she gave me my bottled water and Hersey's chocolates and thanked me for being a Platinum member ( like an, oh, by the way). Strike 3. I honestly don't think she even knows the difference in elite levels.  I blame management for that!  Train your people. Let them know what each level of Elite status stands for and teach them how to treat your loyal clients. By the end of December, this Platinum Premier Elite member will have stayed over 200 nights in Marriott hotels. Unless something changes, this hotel will NOT be one of them.  Very disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, Manager at Courtyard Houston Kingwood, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>As a PLATINUM PREMIER Elite member (top 3% of Paltinum Elites), I was told that the staff at this hotel has the most comprehensive training in how to create a customized and elegant experience for its most loyal clients. I would say that hasn't held true with my experience and I just arrived. I have two business colleagues that frequent this specific hotel because they are treated like "royalty" from the time they walk in the door until the time they leave, as they should considering how many nights they travel away from their families. So I excitedly walked into the hotel today and was greeted by....no one. There was no one standing at the reception area. Strike 1.  Then the Marriott Associate asked for my name, which I gladly shared, and I waited with anticipation for the enthusiastic "Welcome to our hotel and thank you SO MUCH for choosing us today. As a Platinum Premier member we know you could choose so many different hotel brands and we appreciate you choosing us!"  What I received instead was "here is your room key". Strike 2.  Needless to say,after taking a red eye from work overseas to get here for work tomorrow, I responded quite sarcastically. My first words were "Have I been upgraded for my stay" to which I received the reply "No, we have you in a King room."  I shared that there must be some suites available and...As a PLATINUM PREMIER Elite member (top 3% of Paltinum Elites), I was told that the staff at this hotel has the most comprehensive training in how to create a customized and elegant experience for its most loyal clients. I would say that hasn't held true with my experience and I just arrived. I have two business colleagues that frequent this specific hotel because they are treated like "royalty" from the time they walk in the door until the time they leave, as they should considering how many nights they travel away from their families. So I excitedly walked into the hotel today and was greeted by....no one. There was no one standing at the reception area. Strike 1.  Then the Marriott Associate asked for my name, which I gladly shared, and I waited with anticipation for the enthusiastic "Welcome to our hotel and thank you SO MUCH for choosing us today. As a Platinum Premier member we know you could choose so many different hotel brands and we appreciate you choosing us!"  What I received instead was "here is your room key". Strike 2.  Needless to say,after taking a red eye from work overseas to get here for work tomorrow, I responded quite sarcastically. My first words were "Have I been upgraded for my stay" to which I received the reply "No, we have you in a King room."  I shared that there must be some suites available and she shared none were ready yet. I told her I would wait until one was ready.   Magically, a king suite room appeared. I told her I shouldn't have to ask for an upgrade and shared the experiences my colleagues had at this hotel were very different than what I was experiencing. Needless to say, I will be calling my Platinum guest services tomorrow to file a formal complaint.  Oh, but right before I was walking away, she gave me my bottled water and Hersey's chocolates and thanked me for being a Platinum member ( like an, oh, by the way). Strike 3. I honestly don't think she even knows the difference in elite levels.  I blame management for that!  Train your people. Let them know what each level of Elite status stands for and teach them how to treat your loyal clients. By the end of December, this Platinum Premier Elite member will have stayed over 200 nights in Marriott hotels. Unless something changes, this hotel will NOT be one of them.  Very disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r295425779-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295425779</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>They will charge you for "stolen" items that you never laid eyes on in your room</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel, ever, unless you want your credit card randomly charged for $40. I called to see why there was an extra $40 charge on my credit card, and they said something was missing from the room and couldn't tell me what.  A few days later, I was told there was a missing coffee pot....a coffee pot??????  "The housekeepers take daily inventory and yours was missing"...Can you imagine stuffing a coffee pot in your suitcase with all the other stuff you packed, and boarding a plane???!!!!!This was the worst experience and the manager's customer service skills are even worse. I am military and travel all over the world, I would never have imagined this experience at a hotel chain I actually enjoy, and the customer service as bad as this.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Andrew E, Front Office Manager at Courtyard Houston Kingwood, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel, ever, unless you want your credit card randomly charged for $40. I called to see why there was an extra $40 charge on my credit card, and they said something was missing from the room and couldn't tell me what.  A few days later, I was told there was a missing coffee pot....a coffee pot??????  "The housekeepers take daily inventory and yours was missing"...Can you imagine stuffing a coffee pot in your suitcase with all the other stuff you packed, and boarding a plane???!!!!!This was the worst experience and the manager's customer service skills are even worse. I am military and travel all over the world, I would never have imagined this experience at a hotel chain I actually enjoy, and the customer service as bad as this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r288373774-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288373774</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Long weekend vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed 4 nights here and honestly it was perfect for what we were looking for. The linens were crisp and clean. The staff was friendly and welcoming. Our room was cleaned daily. We didn't need the fancy frills. We just wanted a nice place to sleep while visited the local attractions. We will stay here again. Family friendly. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r286901379-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286901379</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great Value in Kingwood</t>
+  </si>
+  <si>
+    <t>We have stayed in many Hotel/Motels in Kingwood over the last 8 years and this is the best place we have found.  The hotel was new and nicely maintained.  The bed was very comfortable with nice comfortable furniture in the room,  The room had a high def TV with cable.  The property was well insulated for noise, we did not hear noise from the nearby Interstate unlike at other places.I would recommend this hotel to anyone needing to stay in Kingwood, Tx.  Also it was the best hotel for the money we found in Kingwood.  I would have given it an Ecellent rating if it had a free breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r282926663-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282926663</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel. I think the nicest place I have ever stayed.</t>
+  </si>
+  <si>
+    <t>This hotel is a class act. Clean, trendy, friendly, awesome internet service. The Bistro food was good. Good selection if you are a health nut or a vegan. They have Starbucks Coffee. We stayed here for 3 nights. Loved it. We would stay here again if we visit the Houston area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r275145921-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275145921</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I am very picky about where I stay and especially being a former travel agent  I look for a lot in a hotel, especially customer service. This is one of my favorite Hotel to stay at while visiting. Very relaxing, great customer service and cleanliness! You won't regret staying at this property unless you have personal situations. Other than that I hope you enjoy. If so let me know your feed back. I also have my on Facebook page which I also recommend cities, hotels and restaurants  I have experienced.Good Luck!!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r275009659-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275009659</t>
+  </si>
+  <si>
+    <t>My family and I have stayed in this hotel several times, so much so that they remember my name...and go out of their way to say hello!  We even have accidentally left some very nice stuff in a closet (Xbox games, expensive basketball shoes) and they were completely honest, held it for us and made sure we got it back!  The staff is courteous and the hotel is always clean and feels brand new.  It's spacious and has a great work out room.  We will always use this hotel again and again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r274886747-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274886747</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Just fine but in the middle of nowhere</t>
+  </si>
+  <si>
+    <t>The standardization upgrade of the Courtyard Marriott is pretty wonderful -- nice rooms, Bistro is lovely.  This one, however, has a staff that is confoundingly lacking in common sense.  Is there a nail salon nearby, I asked the woman at the front desk.  No, she replied.  (There's one across the street).  Do you have a map of the surrounding area, I asked her.  No, she replied.  (There's a stack of maps in the lobby.)  The pool is small.  The outside terrace is lovely.  The Bistro area needs to serve lunch, because there's so few places nearby.  But it was all fine.  The shuttle service is incredibly frustrating, I will say, but as that is an added bonus, whatever.  Overall, if you have to be in Humble, TX, or near the airport, it's fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, Manager at Courtyard Houston Kingwood, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>The standardization upgrade of the Courtyard Marriott is pretty wonderful -- nice rooms, Bistro is lovely.  This one, however, has a staff that is confoundingly lacking in common sense.  Is there a nail salon nearby, I asked the woman at the front desk.  No, she replied.  (There's one across the street).  Do you have a map of the surrounding area, I asked her.  No, she replied.  (There's a stack of maps in the lobby.)  The pool is small.  The outside terrace is lovely.  The Bistro area needs to serve lunch, because there's so few places nearby.  But it was all fine.  The shuttle service is incredibly frustrating, I will say, but as that is an added bonus, whatever.  Overall, if you have to be in Humble, TX, or near the airport, it's fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r267612188-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267612188</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>The staff here provided excellent customer service. Room was super clean with very nice furnishings. Great bed, shower and desk area. We had a room with 2 queens, and it was very large with plenty of space. Did have some problems with the wi-fi at times. There is no free breakfast, and breakfast menu in room has no prices - which means we didn't order anything. The room was kind of bright for sleeping, and there is occasional train noise, but not terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded April 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2015</t>
+  </si>
+  <si>
+    <t>The staff here provided excellent customer service. Room was super clean with very nice furnishings. Great bed, shower and desk area. We had a room with 2 queens, and it was very large with plenty of space. Did have some problems with the wi-fi at times. There is no free breakfast, and breakfast menu in room has no prices - which means we didn't order anything. The room was kind of bright for sleeping, and there is occasional train noise, but not terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r263420994-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263420994</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Caution if you need airport shuttle service!</t>
+  </si>
+  <si>
+    <t>Very pleased with the condition, our room and the service at the bistro at the Courtyard however, when I called the hotel to be picked up from the Houston International Airport, I was told that the shuttle service was no longer running for the night. Apparently the last pick up was at 8pm. The only option was to get a taxi. There was nothing on the hotel's website (or on Expedia) listing the shuttle hours. In the morning when we needed a ride to the airport again, I was told that the shuttle didn't start until 10am. We needed to leave the hotel at 8am. Again, we had to call a taxi. The taxi charges were $26-$30 each way. The hotel ended up reimbursing us for one way but only after complaining that they did not post their hours and the information specifically said complimentary airport shuttle.  Had I known their limited airport shuttle hours, I would never have stayed at this hotel regardless of its condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Very pleased with the condition, our room and the service at the bistro at the Courtyard however, when I called the hotel to be picked up from the Houston International Airport, I was told that the shuttle service was no longer running for the night. Apparently the last pick up was at 8pm. The only option was to get a taxi. There was nothing on the hotel's website (or on Expedia) listing the shuttle hours. In the morning when we needed a ride to the airport again, I was told that the shuttle didn't start until 10am. We needed to leave the hotel at 8am. Again, we had to call a taxi. The taxi charges were $26-$30 each way. The hotel ended up reimbursing us for one way but only after complaining that they did not post their hours and the information specifically said complimentary airport shuttle.  Had I known their limited airport shuttle hours, I would never have stayed at this hotel regardless of its condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r261489778-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261489778</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Nice New Hotel, But Odd Location</t>
+  </si>
+  <si>
+    <t>This is everything you'd expect from a new courtyard hotel. Rooms are sleek and clean. Bathrooms are immaculate with a great shower design. Fitness room and breakfast area are functional. Staff is friendly and helpful. The only drawback is the location. It is right behind a gas station, on the access road from the interstate. It backs up to an apartment complex.  I would stay here if I had to in the next few years, but I'd suspect that there may be some issues with security in the future as things tend to go downhill near gas stations.  But that is just my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>This is everything you'd expect from a new courtyard hotel. Rooms are sleek and clean. Bathrooms are immaculate with a great shower design. Fitness room and breakfast area are functional. Staff is friendly and helpful. The only drawback is the location. It is right behind a gas station, on the access road from the interstate. It backs up to an apartment complex.  I would stay here if I had to in the next few years, but I'd suspect that there may be some issues with security in the future as things tend to go downhill near gas stations.  But that is just my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r254879271-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254879271</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for just one night. Overall, a positive experience. Would likely recommend.Pros:Hotel is on the newer side and the rooms were nice and clean. The shuttle from the airport was convenient and fast. Nearby restaurants.Free Internet.Check in was simple.Cons:Small flat screen TVs in the room.Fitness center has just the basic items; nothing special.I couldn't stand the scent they use in the lobby; some type of sandalwood.Took a while to get a coffee at the Bistro.8:30 a.m. housekeeping knock on the door.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r253090109-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253090109</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>Terrible treatment from staff</t>
+  </si>
+  <si>
+    <t>The staff at this hotel thinks they are running a prison and that the guests are prisoners.
+We have been told that we are to stay in our rooms after 10 pm.
+My wife was forced to leave the lobby and told it was closed when she asked why she was told that if she wanted to visit her friends then they needed to go to there room and keep it to a whisper or the police would be called and we would be thrown out and escorted off the premises.
+My wife was also asked to gather all the woman that she was talking to in the lobby to pick up trash she offered to do it herself so they made my wife clean the lobby.
+I went to the front desk to ask why this happened.There were other people sitting  in the lobby talking and visiting I asked why they were not asked to leave at the same time a large group came in and stood in the lobby being loud I was basically told that they cleared the lobby for them and that the owners of the hotel gave them instructions to keep our group under control.
+Members of our party were interragated over looking to young to drink members of the staff demanding to see Id and demanding access to hotel room to check if there were people hiding the bathroom.
+We have been tormented and...The staff at this hotel thinks they are running a prison and that the guests are prisoners.We have been told that we are to stay in our rooms after 10 pm.My wife was forced to leave the lobby and told it was closed when she asked why she was told that if she wanted to visit her friends then they needed to go to there room and keep it to a whisper or the police would be called and we would be thrown out and escorted off the premises.My wife was also asked to gather all the woman that she was talking to in the lobby to pick up trash she offered to do it herself so they made my wife clean the lobby.I went to the front desk to ask why this happened.There were other people sitting  in the lobby talking and visiting I asked why they were not asked to leave at the same time a large group came in and stood in the lobby being loud I was basically told that they cleared the lobby for them and that the owners of the hotel gave them instructions to keep our group under control.Members of our party were interragated over looking to young to drink members of the staff demanding to see Id and demanding access to hotel room to check if there were people hiding the bathroom.We have been tormented and harassed since the day after our arrival if there was another hotel we would leave I just hope tonight we are not bothered by the staff and subjected to the same conspiracy theories that they invent.We are here for a baby shower and wedding reception nothing more and will never stay here again.I did not think that The Marriott condoned imposing on people's civil rights and defomation of character.My suggestion to anyone if you are having an event and need someplace to stay for a large group stay away from this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel thinks they are running a prison and that the guests are prisoners.
+We have been told that we are to stay in our rooms after 10 pm.
+My wife was forced to leave the lobby and told it was closed when she asked why she was told that if she wanted to visit her friends then they needed to go to there room and keep it to a whisper or the police would be called and we would be thrown out and escorted off the premises.
+My wife was also asked to gather all the woman that she was talking to in the lobby to pick up trash she offered to do it herself so they made my wife clean the lobby.
+I went to the front desk to ask why this happened.There were other people sitting  in the lobby talking and visiting I asked why they were not asked to leave at the same time a large group came in and stood in the lobby being loud I was basically told that they cleared the lobby for them and that the owners of the hotel gave them instructions to keep our group under control.
+Members of our party were interragated over looking to young to drink members of the staff demanding to see Id and demanding access to hotel room to check if there were people hiding the bathroom.
+We have been tormented and...The staff at this hotel thinks they are running a prison and that the guests are prisoners.We have been told that we are to stay in our rooms after 10 pm.My wife was forced to leave the lobby and told it was closed when she asked why she was told that if she wanted to visit her friends then they needed to go to there room and keep it to a whisper or the police would be called and we would be thrown out and escorted off the premises.My wife was also asked to gather all the woman that she was talking to in the lobby to pick up trash she offered to do it herself so they made my wife clean the lobby.I went to the front desk to ask why this happened.There were other people sitting  in the lobby talking and visiting I asked why they were not asked to leave at the same time a large group came in and stood in the lobby being loud I was basically told that they cleared the lobby for them and that the owners of the hotel gave them instructions to keep our group under control.Members of our party were interragated over looking to young to drink members of the staff demanding to see Id and demanding access to hotel room to check if there were people hiding the bathroom.We have been tormented and harassed since the day after our arrival if there was another hotel we would leave I just hope tonight we are not bothered by the staff and subjected to the same conspiracy theories that they invent.We are here for a baby shower and wedding reception nothing more and will never stay here again.I did not think that The Marriott condoned imposing on people's civil rights and defomation of character.My suggestion to anyone if you are having an event and need someplace to stay for a large group stay away from this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r250363148-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250363148</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Beautiful rooms</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and upscale. The rooms are fabulous. They are HUGE and very clean. We enjoyed some drinks from the bar. The bartender was very friendly and gave dining suggestions to our party. The only complain I have is one of the guests thought he left a Pittsburgh Steelers jackets in the room. We called and the front desk reception said they would follow through this concern and get back to us. Nobody ever returned the phone call. Luckily he had the jacket in his suitcase; however, we thought it was low class not to even return the phone call.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r246275949-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246275949</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Great facility let down by poor staff training</t>
+  </si>
+  <si>
+    <t>On the plus side, the Kingwood Marriott is new, well-appointed, and the rooms are modern and comfortable.  The cleaning staff do a superlative job.  With good management, I'd put this in one of my better mid-range business hotel experiences.
+However, the facility is let down by management that does not appear to adequately supervise or train the staff.  Over our stay--almost a week--we noticed the following:
+a)  Staff frequently leave the front desk unattended, retreating into the back office.  Guests who need assistance must either stand around the front desk calling, "Excuse me" into the ether or go to their room and call the service desk via phone.  Good luck with the latter if you've lost your room key.  Notably, after hours you may find it impossible to enter if your room key is lost or non-functional and the desk staff has disappeared to their offices.  (While I was seeking assistance, I listened to another guest who complained that he'd been unable to enter the hotel at night for fifteen minutes because the front door was locked and the front desk unmanned.)
+b)  The "restaurant" keeps odd hours and, while coffee is theoretically available at any time, staff don't always know how to fix it.
+c)  Snacks near the front desk are predictably but extortionately overpriced.  Worse, however, not all of the snack items have been entered into the computer system, which means it may take you fifteen minutes to...On the plus side, the Kingwood Marriott is new, well-appointed, and the rooms are modern and comfortable.  The cleaning staff do a superlative job.  With good management, I'd put this in one of my better mid-range business hotel experiences.However, the facility is let down by management that does not appear to adequately supervise or train the staff.  Over our stay--almost a week--we noticed the following:a)  Staff frequently leave the front desk unattended, retreating into the back office.  Guests who need assistance must either stand around the front desk calling, "Excuse me" into the ether or go to their room and call the service desk via phone.  Good luck with the latter if you've lost your room key.  Notably, after hours you may find it impossible to enter if your room key is lost or non-functional and the desk staff has disappeared to their offices.  (While I was seeking assistance, I listened to another guest who complained that he'd been unable to enter the hotel at night for fifteen minutes because the front door was locked and the front desk unmanned.)b)  The "restaurant" keeps odd hours and, while coffee is theoretically available at any time, staff don't always know how to fix it.c)  Snacks near the front desk are predictably but extortionately overpriced.  Worse, however, not all of the snack items have been entered into the computer system, which means it may take you fifteen minutes to pay for your chosen junk food.d)  Want to use the laundry? There's no change machine in the laundry room, the machines only take quarters, and the front desk doesn't keep rolls of change. They will eventually break your bill for you--by having a handyman accompany you to the laundry to get change out of the machines themselves--but it's more of an epic quest than something that should be a matter of course.e)  As others have mentioned, housekeeping knocks at early hours, doesn't take no for an answer, and comes back repeatedly.  They do respect the "do not disturb" sign, but woe betide you if you forget to put it out.As I said, the facility is new, and perhaps management hasn't had time to get everything in order.  Moreover, I can't fault the staff themselves:  they were unrelentingly friendly, and if given proper training, instruction and equipment they seem perfectly capable of working for a first-class business hotel.  But unless you see reviews stating that things have improved, I'd look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>On the plus side, the Kingwood Marriott is new, well-appointed, and the rooms are modern and comfortable.  The cleaning staff do a superlative job.  With good management, I'd put this in one of my better mid-range business hotel experiences.
+However, the facility is let down by management that does not appear to adequately supervise or train the staff.  Over our stay--almost a week--we noticed the following:
+a)  Staff frequently leave the front desk unattended, retreating into the back office.  Guests who need assistance must either stand around the front desk calling, "Excuse me" into the ether or go to their room and call the service desk via phone.  Good luck with the latter if you've lost your room key.  Notably, after hours you may find it impossible to enter if your room key is lost or non-functional and the desk staff has disappeared to their offices.  (While I was seeking assistance, I listened to another guest who complained that he'd been unable to enter the hotel at night for fifteen minutes because the front door was locked and the front desk unmanned.)
+b)  The "restaurant" keeps odd hours and, while coffee is theoretically available at any time, staff don't always know how to fix it.
+c)  Snacks near the front desk are predictably but extortionately overpriced.  Worse, however, not all of the snack items have been entered into the computer system, which means it may take you fifteen minutes to...On the plus side, the Kingwood Marriott is new, well-appointed, and the rooms are modern and comfortable.  The cleaning staff do a superlative job.  With good management, I'd put this in one of my better mid-range business hotel experiences.However, the facility is let down by management that does not appear to adequately supervise or train the staff.  Over our stay--almost a week--we noticed the following:a)  Staff frequently leave the front desk unattended, retreating into the back office.  Guests who need assistance must either stand around the front desk calling, "Excuse me" into the ether or go to their room and call the service desk via phone.  Good luck with the latter if you've lost your room key.  Notably, after hours you may find it impossible to enter if your room key is lost or non-functional and the desk staff has disappeared to their offices.  (While I was seeking assistance, I listened to another guest who complained that he'd been unable to enter the hotel at night for fifteen minutes because the front door was locked and the front desk unmanned.)b)  The "restaurant" keeps odd hours and, while coffee is theoretically available at any time, staff don't always know how to fix it.c)  Snacks near the front desk are predictably but extortionately overpriced.  Worse, however, not all of the snack items have been entered into the computer system, which means it may take you fifteen minutes to pay for your chosen junk food.d)  Want to use the laundry? There's no change machine in the laundry room, the machines only take quarters, and the front desk doesn't keep rolls of change. They will eventually break your bill for you--by having a handyman accompany you to the laundry to get change out of the machines themselves--but it's more of an epic quest than something that should be a matter of course.e)  As others have mentioned, housekeeping knocks at early hours, doesn't take no for an answer, and comes back repeatedly.  They do respect the "do not disturb" sign, but woe betide you if you forget to put it out.As I said, the facility is new, and perhaps management hasn't had time to get everything in order.  Moreover, I can't fault the staff themselves:  they were unrelentingly friendly, and if given proper training, instruction and equipment they seem perfectly capable of working for a first-class business hotel.  But unless you see reviews stating that things have improved, I'd look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r245743757-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245743757</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Housekeepers wouldn't stop knocking in the morning</t>
+  </si>
+  <si>
+    <t>When we checked in to this hotel, I was pleasantly surprised by the appealing decor and cafe area. It was a little loud in the room due to the proximity to the highway.The really frustrating thing was that starting at about 8:30am the housekeepers started knocking on our door every 20 minutes to see if we had left. They don't provide the customary "do not disturb" signs so every time a different housekeeper finished a room they would come knock on our door. It really didn't make me feel like a "guest."MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded December 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2014</t>
+  </si>
+  <si>
+    <t>When we checked in to this hotel, I was pleasantly surprised by the appealing decor and cafe area. It was a little loud in the room due to the proximity to the highway.The really frustrating thing was that starting at about 8:30am the housekeepers started knocking on our door every 20 minutes to see if we had left. They don't provide the customary "do not disturb" signs so every time a different housekeeper finished a room they would come knock on our door. It really didn't make me feel like a "guest."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r242423229-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242423229</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Pretty place but staff needs training!</t>
+  </si>
+  <si>
+    <t>I agree with the others that this hotel is beautiful and well-appointed. Nice rooms, nice meeting areas, nice eating areas. The staff is friendly. That's where it ends.
+ The first time I checked in, the lady at the front desk said my room number out loud. A big no-no, especially to a woman traveling alone! I told her so and she said, "Oh, yeah! Oops!" (That's a response??!!) No one else was in the lobby so I let it go. 
+Second time I checked in, it was busier. A different check-in lady told the lady ahead of me her room number out loud. For me, she had it written and said "Here it is", which was great. However, I got a candy bar and came back and asked her to charge it to my room. She said, "So what is your room number?" I said, "I am traveling alone. I shouldn't say it out loud". She said, "Oh that's right!"  I showed her where she had written it. Don't they train them anything about safety? 
+To add to that, I was given a room at the end of the hall, next to the stairs! Everyone knows thats the worst place for a single woman to stay! If I hadn't been so tired, I would have gone back and asked for another room! I am not paranoid but I do practice safety. This hotel is clueless about it.
+I also called...I agree with the others that this hotel is beautiful and well-appointed. Nice rooms, nice meeting areas, nice eating areas. The staff is friendly. That's where it ends. The first time I checked in, the lady at the front desk said my room number out loud. A big no-no, especially to a woman traveling alone! I told her so and she said, "Oh, yeah! Oops!" (That's a response??!!) No one else was in the lobby so I let it go. Second time I checked in, it was busier. A different check-in lady told the lady ahead of me her room number out loud. For me, she had it written and said "Here it is", which was great. However, I got a candy bar and came back and asked her to charge it to my room. She said, "So what is your room number?" I said, "I am traveling alone. I shouldn't say it out loud". She said, "Oh that's right!"  I showed her where she had written it. Don't they train them anything about safety? To add to that, I was given a room at the end of the hall, next to the stairs! Everyone knows thats the worst place for a single woman to stay! If I hadn't been so tired, I would have gone back and asked for another room! I am not paranoid but I do practice safety. This hotel is clueless about it.I also called down for a blanket. (They have a coverlet that is not warm. The temp is ok but I still prefer a blanket.) When the man brought it, he said, "Sorry but this blanket is the best I could do!" It was about 50 years old. This is a HOTEL! How many beds do they have? Isn't this their business and it was hard to get a blanket?? Really??Lastly, regarding staff-needing-training: The meals took FOREVER to get them even if It wasn't crowded and some days no one was around! Are they playing cards in the back? The eggs "over easy" looked like they were in the pan 10 seconds. The bacon was almost raw! With all the time they took, you would think they would have been done. PLEASE teach them how to cook and bring them out in a timely matter! The day after that experience, I ordered oatmeal and ask the lady if it would come quickly (I had a meeting). I told her how long it took the day before and she started defending them! "Must have been busy, etc." She wasn't even there! Did she think I lied about it? A lesson here in how to treat customers would help here.The oatmeal was good but after her treatment and the already bad service, I ate out the next few days!To sum it up, a hotel should be more than good looks. It should have a staff that is well trained, too beyond the "Welcome to the Courtyard" stuff. I have a lot of points on Marriott - and have stayed from J.W. Marriotts on down all over the world.  I still love Marriott and will be faithful to them. However, the next time I am in Kingwood (which will be Christmas week), I will stay at the Fairfield Inn.PS A few tea bags in the room would be nice and not cost much. Not everyone drinks coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>I agree with the others that this hotel is beautiful and well-appointed. Nice rooms, nice meeting areas, nice eating areas. The staff is friendly. That's where it ends.
+ The first time I checked in, the lady at the front desk said my room number out loud. A big no-no, especially to a woman traveling alone! I told her so and she said, "Oh, yeah! Oops!" (That's a response??!!) No one else was in the lobby so I let it go. 
+Second time I checked in, it was busier. A different check-in lady told the lady ahead of me her room number out loud. For me, she had it written and said "Here it is", which was great. However, I got a candy bar and came back and asked her to charge it to my room. She said, "So what is your room number?" I said, "I am traveling alone. I shouldn't say it out loud". She said, "Oh that's right!"  I showed her where she had written it. Don't they train them anything about safety? 
+To add to that, I was given a room at the end of the hall, next to the stairs! Everyone knows thats the worst place for a single woman to stay! If I hadn't been so tired, I would have gone back and asked for another room! I am not paranoid but I do practice safety. This hotel is clueless about it.
+I also called...I agree with the others that this hotel is beautiful and well-appointed. Nice rooms, nice meeting areas, nice eating areas. The staff is friendly. That's where it ends. The first time I checked in, the lady at the front desk said my room number out loud. A big no-no, especially to a woman traveling alone! I told her so and she said, "Oh, yeah! Oops!" (That's a response??!!) No one else was in the lobby so I let it go. Second time I checked in, it was busier. A different check-in lady told the lady ahead of me her room number out loud. For me, she had it written and said "Here it is", which was great. However, I got a candy bar and came back and asked her to charge it to my room. She said, "So what is your room number?" I said, "I am traveling alone. I shouldn't say it out loud". She said, "Oh that's right!"  I showed her where she had written it. Don't they train them anything about safety? To add to that, I was given a room at the end of the hall, next to the stairs! Everyone knows thats the worst place for a single woman to stay! If I hadn't been so tired, I would have gone back and asked for another room! I am not paranoid but I do practice safety. This hotel is clueless about it.I also called down for a blanket. (They have a coverlet that is not warm. The temp is ok but I still prefer a blanket.) When the man brought it, he said, "Sorry but this blanket is the best I could do!" It was about 50 years old. This is a HOTEL! How many beds do they have? Isn't this their business and it was hard to get a blanket?? Really??Lastly, regarding staff-needing-training: The meals took FOREVER to get them even if It wasn't crowded and some days no one was around! Are they playing cards in the back? The eggs "over easy" looked like they were in the pan 10 seconds. The bacon was almost raw! With all the time they took, you would think they would have been done. PLEASE teach them how to cook and bring them out in a timely matter! The day after that experience, I ordered oatmeal and ask the lady if it would come quickly (I had a meeting). I told her how long it took the day before and she started defending them! "Must have been busy, etc." She wasn't even there! Did she think I lied about it? A lesson here in how to treat customers would help here.The oatmeal was good but after her treatment and the already bad service, I ate out the next few days!To sum it up, a hotel should be more than good looks. It should have a staff that is well trained, too beyond the "Welcome to the Courtyard" stuff. I have a lot of points on Marriott - and have stayed from J.W. Marriotts on down all over the world.  I still love Marriott and will be faithful to them. However, the next time I am in Kingwood (which will be Christmas week), I will stay at the Fairfield Inn.PS A few tea bags in the room would be nice and not cost much. Not everyone drinks coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r239066966-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239066966</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>No hot water, but policy!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this week, and the staff was courteous and helpful. The decor and rooms were standard for what you'd expect for a Courtyard, and I stay at them often. 
+The first night I was there, I noticed that my room had no hot water. The temperature varied between lukewarm and cold. When I experienced this on my second day, my wife mentioned it to the front desk. They sent maintenance to the  room, and they checked the setting on the heater. They told her to just let the water run for five minutes, and in the evenings when we did that we had warm water. 
+The next morning, the water was cold again. We reported it again. They sent up free breakfast, with apologies, and checked the heater. The explanation again was that it was set as high as it could go and we were just at the end of the hall. 
+On the next day, we still had cold (not warm or lukewarm, but COLD) water, called the desk again, maintenance was dispatched, and they again reported it was set as warm as it could go. 
+At all times, the staff was courteous and nice, and probably followed hotel policy to the letter. However, they seemed to think we wanted apologies, or free stuff to makeup for the problem they thought we had, but we just wanted non-frigid water. I'm sure they followed their script...I stayed at this hotel this week, and the staff was courteous and helpful. The decor and rooms were standard for what you'd expect for a Courtyard, and I stay at them often. The first night I was there, I noticed that my room had no hot water. The temperature varied between lukewarm and cold. When I experienced this on my second day, my wife mentioned it to the front desk. They sent maintenance to the  room, and they checked the setting on the heater. They told her to just let the water run for five minutes, and in the evenings when we did that we had warm water. The next morning, the water was cold again. We reported it again. They sent up free breakfast, with apologies, and checked the heater. The explanation again was that it was set as high as it could go and we were just at the end of the hall. On the next day, we still had cold (not warm or lukewarm, but COLD) water, called the desk again, maintenance was dispatched, and they again reported it was set as warm as it could go. At all times, the staff was courteous and nice, and probably followed hotel policy to the letter. However, they seemed to think we wanted apologies, or free stuff to makeup for the problem they thought we had, but we just wanted non-frigid water. I'm sure they followed their script to the letter, but didn't actually think about the problem. For instance, if guests point out for several days that the water is frigid, and the water heater is set high, could there possibly be a problem with the water heater??? Instead of thinking about how to solve the problem, it seemed like their manual just said, "apologize and give them free yogurt". If you stay at this hotel and encounter a problem-free visit, it will be lovely. If you have any issues, though, I fear they will kindly apologize, give you a pastry, and the problem will remain. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this week, and the staff was courteous and helpful. The decor and rooms were standard for what you'd expect for a Courtyard, and I stay at them often. 
+The first night I was there, I noticed that my room had no hot water. The temperature varied between lukewarm and cold. When I experienced this on my second day, my wife mentioned it to the front desk. They sent maintenance to the  room, and they checked the setting on the heater. They told her to just let the water run for five minutes, and in the evenings when we did that we had warm water. 
+The next morning, the water was cold again. We reported it again. They sent up free breakfast, with apologies, and checked the heater. The explanation again was that it was set as high as it could go and we were just at the end of the hall. 
+On the next day, we still had cold (not warm or lukewarm, but COLD) water, called the desk again, maintenance was dispatched, and they again reported it was set as warm as it could go. 
+At all times, the staff was courteous and nice, and probably followed hotel policy to the letter. However, they seemed to think we wanted apologies, or free stuff to makeup for the problem they thought we had, but we just wanted non-frigid water. I'm sure they followed their script...I stayed at this hotel this week, and the staff was courteous and helpful. The decor and rooms were standard for what you'd expect for a Courtyard, and I stay at them often. The first night I was there, I noticed that my room had no hot water. The temperature varied between lukewarm and cold. When I experienced this on my second day, my wife mentioned it to the front desk. They sent maintenance to the  room, and they checked the setting on the heater. They told her to just let the water run for five minutes, and in the evenings when we did that we had warm water. The next morning, the water was cold again. We reported it again. They sent up free breakfast, with apologies, and checked the heater. The explanation again was that it was set as high as it could go and we were just at the end of the hall. On the next day, we still had cold (not warm or lukewarm, but COLD) water, called the desk again, maintenance was dispatched, and they again reported it was set as warm as it could go. At all times, the staff was courteous and nice, and probably followed hotel policy to the letter. However, they seemed to think we wanted apologies, or free stuff to makeup for the problem they thought we had, but we just wanted non-frigid water. I'm sure they followed their script to the letter, but didn't actually think about the problem. For instance, if guests point out for several days that the water is frigid, and the water heater is set high, could there possibly be a problem with the water heater??? Instead of thinking about how to solve the problem, it seemed like their manual just said, "apologize and give them free yogurt". If you stay at this hotel and encounter a problem-free visit, it will be lovely. If you have any issues, though, I fear they will kindly apologize, give you a pastry, and the problem will remain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r238763341-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238763341</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Very Nice 4 Day Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 days for a conference and really enjoyed it.  The staff was exceptionally nice.  They have a cute bar you can get breakfast and good coffee at.  They have a shuttle that will take you within a 5 mile radius and that is convenient if you don't have a car.  This was one of the best hotel experiences I've had in awhile.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r237666301-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237666301</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Great service and great experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakota at the Bistro was outstanding. Great food recommendation and attentive service. Front desk staff are very polite and efficient. I would  highly recommend the hotel for the service and excellent facility. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r234839986-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234839986</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Not a good choice for us, noisy and cramped rooms. Poor value</t>
+  </si>
+  <si>
+    <t>I share the comments of "Elba S" -- cramped rooms, tidy closet, no amenities for Marriott Rewards members, pricy food at the Bistro, beware of the shower door handle. Still wondering what use is the red bowling pin in the bathroom.  Interior decorations at the expense of overall room comfort. We reserved an upgraded room with balcony, only to determine that the noise from the adjacent highways was excessive making use of the balcony impossible. Be aware of rooms close to the ice machines as the night time noise is excessive. Not a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded October 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2014</t>
+  </si>
+  <si>
+    <t>I share the comments of "Elba S" -- cramped rooms, tidy closet, no amenities for Marriott Rewards members, pricy food at the Bistro, beware of the shower door handle. Still wondering what use is the red bowling pin in the bathroom.  Interior decorations at the expense of overall room comfort. We reserved an upgraded room with balcony, only to determine that the noise from the adjacent highways was excessive making use of the balcony impossible. Be aware of rooms close to the ice machines as the night time noise is excessive. Not a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r232367080-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232367080</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Exactly what we needed after a nightmare flight</t>
+  </si>
+  <si>
+    <t>We arrived in Houston fur to a diverted flight from AA which left us stranded overnight at the airport. This was the closest place that had availability. We arrived beyond stressed out and was greeted by a polite evening staff. Sh the associate could tell our stress level was through the roof and as a result added a sense of urgency to our check-in as well as offered a free snack. The interior is updated and overall provides a great value for the price.  During my holiday that I was returning from, I stayed at a few Ritz Carlton properties and find the quality of sleep to be slightly above the caliber of sleep experienced at said places. I feel that for a hotel, the most important parts are the pieces associated with the quality and comfort of your sleep, not the rest of the bells and whistles.  I laid my head back on the soft, full pillows and was out like a lamb in just a few minutes. There was also a summer comforter which did not overpower you with heat as well as an air conditioner that cooled down the room to 65 (from 73) within about 10 minutes.Overall I would return to this establishment as well as recommend it to any collages out friends will might need a room in this area. MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived in Houston fur to a diverted flight from AA which left us stranded overnight at the airport. This was the closest place that had availability. We arrived beyond stressed out and was greeted by a polite evening staff. Sh the associate could tell our stress level was through the roof and as a result added a sense of urgency to our check-in as well as offered a free snack. The interior is updated and overall provides a great value for the price.  During my holiday that I was returning from, I stayed at a few Ritz Carlton properties and find the quality of sleep to be slightly above the caliber of sleep experienced at said places. I feel that for a hotel, the most important parts are the pieces associated with the quality and comfort of your sleep, not the rest of the bells and whistles.  I laid my head back on the soft, full pillows and was out like a lamb in just a few minutes. There was also a summer comforter which did not overpower you with heat as well as an air conditioner that cooled down the room to 65 (from 73) within about 10 minutes.Overall I would return to this establishment as well as recommend it to any collages out friends will might need a room in this area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r231939998-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231939998</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>We were playing golf in the area and needed a place to stay one night.  Hotel is new and very nice. Gal at front desk was very helpful she mentioned she was in training and apologized if check in was taking longer than normal.  Room was great with small sofa and beds were very comfortable.  Great value for the area.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r226315303-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226315303</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Good, but not Great, Stay</t>
+  </si>
+  <si>
+    <t>Located in a fast paced area, this property is near many good shopping and eating spots. The biggest problem is that there is NO signage for the hotel along the road. The hotel is almost completely shielded from view by a gas station. Once we found it, the check in process was slowed down because the front desk person was on the phone for at least seven minutes. No other staff was in sight.The rooms are modern and up to date with free Wi-Fi  and parking. The construction of the building did not provide and real privacy, as you could either hear the noise from the surrounding rooms or hear the footsteps of the people above you. Add to this the fact that the floors were quite "springy" and the bed was so soft I thought I would end up on the floor...well, you get the picture. The room rate was fair, I thought, until my daughter and her family checked in and had a room rate that was 30% less than mine! Would I stay again? I would say yes, but only because of the close proximity to where I need to be, not for any other reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jonathan C, General Manager at Courtyard Houston Kingwood, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Located in a fast paced area, this property is near many good shopping and eating spots. The biggest problem is that there is NO signage for the hotel along the road. The hotel is almost completely shielded from view by a gas station. Once we found it, the check in process was slowed down because the front desk person was on the phone for at least seven minutes. No other staff was in sight.The rooms are modern and up to date with free Wi-Fi  and parking. The construction of the building did not provide and real privacy, as you could either hear the noise from the surrounding rooms or hear the footsteps of the people above you. Add to this the fact that the floors were quite "springy" and the bed was so soft I thought I would end up on the floor...well, you get the picture. The room rate was fair, I thought, until my daughter and her family checked in and had a room rate that was 30% less than mine! Would I stay again? I would say yes, but only because of the close proximity to where I need to be, not for any other reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r225257181-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225257181</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>New hotel with modern furnishings and decor. Very comfortable, open lobby and common areas inside and outside. The Bistro offers Starbucks Coffee and a nice range of food. In the evening they serve a nice selection of wines, domestic and craft beers, although quite pricey. Stayed one night while attending training classes in one of the conference rooms. Excellent service, food, and beverages in conference room, very professional staff. My room was a king suite with large windows, very comfortable and stylish, lots of tech gadget connections! Loved the big shower with sliding glass door (no bath tub). Bed was SO comfy with LOTS of pillows and high quality linens. Super clean!  Very convenient, easy access off Hwy 59 northbound, within walking distance of a convenience store and a few good restaurants. Really enjoyed my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>New hotel with modern furnishings and decor. Very comfortable, open lobby and common areas inside and outside. The Bistro offers Starbucks Coffee and a nice range of food. In the evening they serve a nice selection of wines, domestic and craft beers, although quite pricey. Stayed one night while attending training classes in one of the conference rooms. Excellent service, food, and beverages in conference room, very professional staff. My room was a king suite with large windows, very comfortable and stylish, lots of tech gadget connections! Loved the big shower with sliding glass door (no bath tub). Bed was SO comfy with LOTS of pillows and high quality linens. Super clean!  Very convenient, easy access off Hwy 59 northbound, within walking distance of a convenience store and a few good restaurants. Really enjoyed my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r222453441-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222453441</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Nice, New Hotel</t>
+  </si>
+  <si>
+    <t>This is a new, clean, quiet, comfortable hotel.  The location is convenient to Houston Intercontinental and has good highway access.  We are long-time Marriott customers (former Platinum, now retired) so have stayed in many Marriott properties.  One reason for the 3 star rating was what we felt was a lack of front desk customer service/support.  With a new hotel, the staff is also new and maybe not quite up to system-wide Marriott standards yet.  Definitely not a deal breaker, just an observation.  The bistro, however, definitely needs work.  We needed a quick breakfast so tried a couple of options.  Not good, at all.  A coffee and muffin at Starbucks would have been a much better option.  Rooms are clean and quiet, skip the food.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new, clean, quiet, comfortable hotel.  The location is convenient to Houston Intercontinental and has good highway access.  We are long-time Marriott customers (former Platinum, now retired) so have stayed in many Marriott properties.  One reason for the 3 star rating was what we felt was a lack of front desk customer service/support.  With a new hotel, the staff is also new and maybe not quite up to system-wide Marriott standards yet.  Definitely not a deal breaker, just an observation.  The bistro, however, definitely needs work.  We needed a quick breakfast so tried a couple of options.  Not good, at all.  A coffee and muffin at Starbucks would have been a much better option.  Rooms are clean and quiet, skip the food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r219739177-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219739177</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  The location on 59 gives easy access to the north eastern area of Houston.  There are plenty of restaurants nearby.  I make this point because instead of the complimentary breakfast offered at many CY hotels, this one has a Bistro, open for breakfast and dinner.  It's the only reason I didn't give this CY five stars.  The menu is limited and prices are high for what you get.  I ordered a turkey BLT and was served a chicken BLT—something I've never ordered anywhere.  Otherwise, the staff was helpful and courteous, and our room was quiet, clean, and comfortable,  I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r215442364-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215442364</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Rude customer service!!!!</t>
+  </si>
+  <si>
+    <t>I was unable to stay at this hotel due to me not having enough on my credit card for incidentals. I advised the male working the front desk that I had cash but was told that it would have to be on a card. My room had been paid for in advance but due to me not having enough on my credit cardFor incidentals, he would not accept my cash. UNBELIEVABLE! !! AND THEN I WAS ADVISED ABOUT HOW THEY WERE BRAND NEW AND HOW THEY OFFERED THIS AND THAT!! REALLY??? I could care less how new..expensive..and that they offer the finer neccesities when the customer service is horrible!!! I live in Kingwood but wanted to have a getaway for the weekend and try this hotel since they are  brand new!!! Very rude service!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was unable to stay at this hotel due to me not having enough on my credit card for incidentals. I advised the male working the front desk that I had cash but was told that it would have to be on a card. My room had been paid for in advance but due to me not having enough on my credit cardFor incidentals, he would not accept my cash. UNBELIEVABLE! !! AND THEN I WAS ADVISED ABOUT HOW THEY WERE BRAND NEW AND HOW THEY OFFERED THIS AND THAT!! REALLY??? I could care less how new..expensive..and that they offer the finer neccesities when the customer service is horrible!!! I live in Kingwood but wanted to have a getaway for the weekend and try this hotel since they are  brand new!!! Very rude service!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r211534877-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211534877</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Great hotel, Bistro needs improvement or training</t>
+  </si>
+  <si>
+    <t>I have been staying at the fairfield inn just up the road in Humble, but tried the just opened Courtyard in Kingwood as it is closer to my family.  It is nicely located on the access road of 59, between the main exits of Kingwood Drive and Northpark Drive.  This made it easy to get into Kingwood, or hit the highway towards Houston or cut through to Conroe.  
+The staff was nice, the rooms clean and nicely laid out.  The only area that I would say needs more training is the Bistro.  My sister and I came down on Friday evening and looked over the menu - they serve some beer, wine, and a choice of 4 basic cocktails.  We order two cosmos and the guy working the Bistro said he had no idea  how to make one, but he would look in the book.  We also paid for a better vodka to be used.  We also ordered the cheese  appetizer.  After several minutes, they guy came back with another employee and said they did not have one ingredient. He pointed to the book and pointed out contreau, so we changed our order. The cheese was served half melted.  We could not make up our mind if it needed to be hotter and melted all the way, or colder and eaten in slices.  
+I think this is probably opening pains of a new hotel, but i think more training should...I have been staying at the fairfield inn just up the road in Humble, but tried the just opened Courtyard in Kingwood as it is closer to my family.  It is nicely located on the access road of 59, between the main exits of Kingwood Drive and Northpark Drive.  This made it easy to get into Kingwood, or hit the highway towards Houston or cut through to Conroe.  The staff was nice, the rooms clean and nicely laid out.  The only area that I would say needs more training is the Bistro.  My sister and I came down on Friday evening and looked over the menu - they serve some beer, wine, and a choice of 4 basic cocktails.  We order two cosmos and the guy working the Bistro said he had no idea  how to make one, but he would look in the book.  We also paid for a better vodka to be used.  We also ordered the cheese  appetizer.  After several minutes, they guy came back with another employee and said they did not have one ingredient. He pointed to the book and pointed out contreau, so we changed our order. The cheese was served half melted.  We could not make up our mind if it needed to be hotter and melted all the way, or colder and eaten in slices.  I think this is probably opening pains of a new hotel, but i think more training should have been done before putting someone in charge of the bistro area. I may stay again as the hotel was nice, but not sure if i would ever trust the bistro.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I have been staying at the fairfield inn just up the road in Humble, but tried the just opened Courtyard in Kingwood as it is closer to my family.  It is nicely located on the access road of 59, between the main exits of Kingwood Drive and Northpark Drive.  This made it easy to get into Kingwood, or hit the highway towards Houston or cut through to Conroe.  
+The staff was nice, the rooms clean and nicely laid out.  The only area that I would say needs more training is the Bistro.  My sister and I came down on Friday evening and looked over the menu - they serve some beer, wine, and a choice of 4 basic cocktails.  We order two cosmos and the guy working the Bistro said he had no idea  how to make one, but he would look in the book.  We also paid for a better vodka to be used.  We also ordered the cheese  appetizer.  After several minutes, they guy came back with another employee and said they did not have one ingredient. He pointed to the book and pointed out contreau, so we changed our order. The cheese was served half melted.  We could not make up our mind if it needed to be hotter and melted all the way, or colder and eaten in slices.  
+I think this is probably opening pains of a new hotel, but i think more training should...I have been staying at the fairfield inn just up the road in Humble, but tried the just opened Courtyard in Kingwood as it is closer to my family.  It is nicely located on the access road of 59, between the main exits of Kingwood Drive and Northpark Drive.  This made it easy to get into Kingwood, or hit the highway towards Houston or cut through to Conroe.  The staff was nice, the rooms clean and nicely laid out.  The only area that I would say needs more training is the Bistro.  My sister and I came down on Friday evening and looked over the menu - they serve some beer, wine, and a choice of 4 basic cocktails.  We order two cosmos and the guy working the Bistro said he had no idea  how to make one, but he would look in the book.  We also paid for a better vodka to be used.  We also ordered the cheese  appetizer.  After several minutes, they guy came back with another employee and said they did not have one ingredient. He pointed to the book and pointed out contreau, so we changed our order. The cheese was served half melted.  We could not make up our mind if it needed to be hotter and melted all the way, or colder and eaten in slices.  I think this is probably opening pains of a new hotel, but i think more training should have been done before putting someone in charge of the bistro area. I may stay again as the hotel was nice, but not sure if i would ever trust the bistro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r208114017-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208114017</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Nice, new, modern hotel in Kingwood.</t>
+  </si>
+  <si>
+    <t>The staff is very accommodating, especially with the shuttle service to nearby restaurants and golf courses.  This is one of the new Courtyards, and it the quality is better than the price they charge.  The rooms and public spaces are quite comfortable.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r207663716-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207663716</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Recently opened and very nice</t>
+  </si>
+  <si>
+    <t>The hotel has only been opened about six months but it is well kept, modern and well appointed. The rooms are quiet and spacious.  The Bistro in the lobby has a nice selection for breakfast and dinner and has a staff that is friendly and accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r204305680-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204305680</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>A week Stay</t>
+  </si>
+  <si>
+    <t>Our family of 5 had to stay here as we had a fire at our home.   We stayed for 1 week.   What I liked most about the hotel is it was very clean and most of the staff was very friendly.   The Bistro was very good.   There was one employee that stood out more than ANY employee there -  Kelly Verke.   She was so professional, very helpful and made us feel at home.    Tiare and Cardine were very nice and helpful as well.   There was only one issue we had the whole time we were staying there and that was with Westin.   He seemed very aggrevated at times having to deal with certain situations with my family.    The day we left, I told my husband "you know he is probably saying in his head - I am glad they are all leaving".   That is the way he made us feel.   Like we were a burden to him.      BUT I would still go back and stay at this hotel.   The other staff members made it worth it and overall a very nice hotel.    Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Our family of 5 had to stay here as we had a fire at our home.   We stayed for 1 week.   What I liked most about the hotel is it was very clean and most of the staff was very friendly.   The Bistro was very good.   There was one employee that stood out more than ANY employee there -  Kelly Verke.   She was so professional, very helpful and made us feel at home.    Tiare and Cardine were very nice and helpful as well.   There was only one issue we had the whole time we were staying there and that was with Westin.   He seemed very aggrevated at times having to deal with certain situations with my family.    The day we left, I told my husband "you know he is probably saying in his head - I am glad they are all leaving".   That is the way he made us feel.   Like we were a burden to him.      BUT I would still go back and stay at this hotel.   The other staff members made it worth it and overall a very nice hotel.    Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r201708527-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201708527</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Well I stayed here for the first time in Kingwood and more than likely it will be the last. The air only goes down to 65 in a new hotel come on. I even called before I checked in to make sure the air went lower and I was told it was. So I tried to get the maintenance man to lower it like always at other hotels but he said he was not allowed oh well whatever. The staff was really nice though that is a plus. Even about the air.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r200362586-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200362586</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>I hate to tell you this...</t>
+  </si>
+  <si>
+    <t>Because if you knew how terrific this hotel is getting a room may prove to be difficult!!  We had a mini family reunion over a 4 day weekend and I made the arrangements for hotel.  I had 3 different reservations under my name and only one small foopah happened during the check in and check out process, which I thought was amazing.  The staff, the room, the meals, the drinks, the firepit was wonderful.  So much lobby and 'mingle' space in this hotel - not found in others to this degree.  The room was superb, had extra stuff chairs so you wouldn't have to sit on the bed.  After a lot of work, I'm sure, by the staff we found our family right across the hall - that was great.  They couldn't be of more help and Weston is the crown jewel.  He seemed to be everywhere we needed something and was eager to make sure we had everything we needed.   We didn't use the pool or fitness center but I'm sure they are equally wonderful.  Courtyard should be proud of this facility and of its staff and be sure you keep Weston!MoreShow less</t>
+  </si>
+  <si>
+    <t>Because if you knew how terrific this hotel is getting a room may prove to be difficult!!  We had a mini family reunion over a 4 day weekend and I made the arrangements for hotel.  I had 3 different reservations under my name and only one small foopah happened during the check in and check out process, which I thought was amazing.  The staff, the room, the meals, the drinks, the firepit was wonderful.  So much lobby and 'mingle' space in this hotel - not found in others to this degree.  The room was superb, had extra stuff chairs so you wouldn't have to sit on the bed.  After a lot of work, I'm sure, by the staff we found our family right across the hall - that was great.  They couldn't be of more help and Weston is the crown jewel.  He seemed to be everywhere we needed something and was eager to make sure we had everything we needed.   We didn't use the pool or fitness center but I'm sure they are equally wonderful.  Courtyard should be proud of this facility and of its staff and be sure you keep Weston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r199049513-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199049513</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Great Service, Newest Amenities and Terrific Follow-up</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for one week in early March, 1014.  The service was excellent.  The facility has the newest comforts including an airconditioning system that is quite and efficient.One hotel staff member, Weston Sarvadi, did an exception job retrieving my "missing mouse" that I inadvertantly left in the room.  The hotel staff is honest and I appreciated the fact that the lost object was sent to me immediately.  The management at this hotel is superb and I commend them for the training and performance of their staff.  I highly recommend travelers book a reservation at this hotel.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r195930786-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195930786</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Newly designed Courtyard a winner</t>
+  </si>
+  <si>
+    <t>Needed a hotel near IAH during a busy week.  Found this newly opened Courtyard and couldn't have been more pleased with it.  The rooms are redesigned, up to date and the décor is impressive.  The café on the first floor had a nice selection of sandwiches, salads, soups, etc. and what looked to be a full bar.  Not full service, you order at the counter and then they bring it to your table but the quality was good, as was the service.  I arrived around 8:00 pm and it was still open.  So nice not to have to leave the hotel after a long day.  Caroline at the front desk was extremely helpful and professional.  Definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Needed a hotel near IAH during a busy week.  Found this newly opened Courtyard and couldn't have been more pleased with it.  The rooms are redesigned, up to date and the décor is impressive.  The café on the first floor had a nice selection of sandwiches, salads, soups, etc. and what looked to be a full bar.  Not full service, you order at the counter and then they bring it to your table but the quality was good, as was the service.  I arrived around 8:00 pm and it was still open.  So nice not to have to leave the hotel after a long day.  Caroline at the front desk was extremely helpful and professional.  Definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r194693900-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194693900</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Love New!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for business trip and it's really new!  Love the rooms, very spacious with a couch and desk.  Great for relaxing and working!  The workout room doesn't have a lot but it's all new!  They have a restaurant with a bar.  The healthy breakfast sandwich was really good!  The staff is super friendly and helpful!  Highly recommend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5272077-r194015284-Courtyard_Houston_Kingwood-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194015284</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work visit to North Houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful new hotel. Top of the courtyard experience. Very nice hotel. Staff was courteous and helpful. Received a FedEx package during my stay and the front desk staff was very quick to get it to me. Cafe downstairs seemed nice even though I didn't have time to enjoy it. Comfortable room and solid bathroom area. Mini fridge in room. Work desk was large and well lit. Comfortable chair. The hotel does charge a slightly higher price for a room with a King bed vs 2 queens, which doesn't make much sense to me. Mattress was very comfortable for a hotel. </t>
   </si>
 </sst>
 </file>
@@ -532,11 +2216,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2248,5682 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" t="s">
+        <v>204</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>229</v>
+      </c>
+      <c r="J34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>223</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>233</v>
+      </c>
+      <c r="J35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J38" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" t="s">
+        <v>246</v>
+      </c>
+      <c r="L38" t="s">
+        <v>247</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>223</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" t="s">
+        <v>251</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" t="s">
+        <v>259</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>223</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s">
+        <v>267</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>223</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>269</v>
+      </c>
+      <c r="J44" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>223</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>273</v>
+      </c>
+      <c r="J45" t="s">
+        <v>220</v>
+      </c>
+      <c r="K45" t="s">
+        <v>274</v>
+      </c>
+      <c r="L45" t="s">
+        <v>275</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>223</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>276</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>223</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>223</v>
+      </c>
+      <c r="O48" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J49" t="s">
+        <v>291</v>
+      </c>
+      <c r="K49" t="s">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s">
+        <v>293</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>223</v>
+      </c>
+      <c r="O49" t="s">
+        <v>294</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50" t="s">
+        <v>297</v>
+      </c>
+      <c r="K50" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" t="s">
+        <v>299</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>300</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" t="s">
+        <v>303</v>
+      </c>
+      <c r="K51" t="s">
+        <v>304</v>
+      </c>
+      <c r="L51" t="s">
+        <v>305</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>306</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>307</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K52" t="s">
+        <v>310</v>
+      </c>
+      <c r="L52" t="s">
+        <v>311</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>312</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>314</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" t="s">
+        <v>316</v>
+      </c>
+      <c r="L53" t="s">
+        <v>317</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s">
+        <v>322</v>
+      </c>
+      <c r="L54" t="s">
+        <v>323</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>318</v>
+      </c>
+      <c r="O54" t="s">
+        <v>294</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" t="s">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s">
+        <v>329</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>330</v>
+      </c>
+      <c r="O55" t="s">
+        <v>331</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>332</v>
+      </c>
+      <c r="X55" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>335</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>336</v>
+      </c>
+      <c r="J56" t="s">
+        <v>337</v>
+      </c>
+      <c r="K56" t="s">
+        <v>338</v>
+      </c>
+      <c r="L56" t="s">
+        <v>339</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>340</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>342</v>
+      </c>
+      <c r="J57" t="s">
+        <v>343</v>
+      </c>
+      <c r="K57" t="s">
+        <v>344</v>
+      </c>
+      <c r="L57" t="s">
+        <v>345</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>340</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>346</v>
+      </c>
+      <c r="X57" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s">
+        <v>352</v>
+      </c>
+      <c r="L58" t="s">
+        <v>353</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>354</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>355</v>
+      </c>
+      <c r="X58" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>359</v>
+      </c>
+      <c r="J59" t="s">
+        <v>360</v>
+      </c>
+      <c r="K59" t="s">
+        <v>361</v>
+      </c>
+      <c r="L59" t="s">
+        <v>362</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>354</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>364</v>
+      </c>
+      <c r="J60" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" t="s">
+        <v>366</v>
+      </c>
+      <c r="L60" t="s">
+        <v>367</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>354</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>369</v>
+      </c>
+      <c r="J61" t="s">
+        <v>370</v>
+      </c>
+      <c r="K61" t="s">
+        <v>371</v>
+      </c>
+      <c r="L61" t="s">
+        <v>372</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>373</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>374</v>
+      </c>
+      <c r="J62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K62" t="s">
+        <v>376</v>
+      </c>
+      <c r="L62" t="s">
+        <v>377</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>378</v>
+      </c>
+      <c r="O62" t="s">
+        <v>294</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>380</v>
+      </c>
+      <c r="J63" t="s">
+        <v>375</v>
+      </c>
+      <c r="K63" t="s">
+        <v>250</v>
+      </c>
+      <c r="L63" t="s">
+        <v>381</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>378</v>
+      </c>
+      <c r="O63" t="s">
+        <v>294</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>382</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>383</v>
+      </c>
+      <c r="J64" t="s">
+        <v>384</v>
+      </c>
+      <c r="K64" t="s">
+        <v>385</v>
+      </c>
+      <c r="L64" t="s">
+        <v>386</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>378</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>387</v>
+      </c>
+      <c r="X64" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>390</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>391</v>
+      </c>
+      <c r="J65" t="s">
+        <v>392</v>
+      </c>
+      <c r="K65" t="s">
+        <v>393</v>
+      </c>
+      <c r="L65" t="s">
+        <v>394</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>217</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>395</v>
+      </c>
+      <c r="X65" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>398</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>399</v>
+      </c>
+      <c r="J66" t="s">
+        <v>400</v>
+      </c>
+      <c r="K66" t="s">
+        <v>401</v>
+      </c>
+      <c r="L66" t="s">
+        <v>402</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>403</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>405</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="s">
+        <v>407</v>
+      </c>
+      <c r="K67" t="s">
+        <v>408</v>
+      </c>
+      <c r="L67" t="s">
+        <v>409</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>410</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>411</v>
+      </c>
+      <c r="X67" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>414</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>415</v>
+      </c>
+      <c r="J68" t="s">
+        <v>416</v>
+      </c>
+      <c r="K68" t="s">
+        <v>417</v>
+      </c>
+      <c r="L68" t="s">
+        <v>418</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>419</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>420</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" t="s">
+        <v>422</v>
+      </c>
+      <c r="K69" t="s">
+        <v>423</v>
+      </c>
+      <c r="L69" t="s">
+        <v>424</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>425</v>
+      </c>
+      <c r="X69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>428</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>429</v>
+      </c>
+      <c r="J70" t="s">
+        <v>430</v>
+      </c>
+      <c r="K70" t="s">
+        <v>431</v>
+      </c>
+      <c r="L70" t="s">
+        <v>432</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>433</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>435</v>
+      </c>
+      <c r="J71" t="s">
+        <v>436</v>
+      </c>
+      <c r="K71" t="s">
+        <v>437</v>
+      </c>
+      <c r="L71" t="s">
+        <v>438</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>410</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>439</v>
+      </c>
+      <c r="X71" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>442</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>443</v>
+      </c>
+      <c r="J72" t="s">
+        <v>444</v>
+      </c>
+      <c r="K72" t="s">
+        <v>445</v>
+      </c>
+      <c r="L72" t="s">
+        <v>446</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>410</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>447</v>
+      </c>
+      <c r="X72" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>450</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>451</v>
+      </c>
+      <c r="J73" t="s">
+        <v>452</v>
+      </c>
+      <c r="K73" t="s">
+        <v>453</v>
+      </c>
+      <c r="L73" t="s">
+        <v>454</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>455</v>
+      </c>
+      <c r="O73" t="s">
+        <v>294</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>456</v>
+      </c>
+      <c r="X73" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>459</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>460</v>
+      </c>
+      <c r="J74" t="s">
+        <v>461</v>
+      </c>
+      <c r="K74" t="s">
+        <v>462</v>
+      </c>
+      <c r="L74" t="s">
+        <v>463</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>455</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>464</v>
+      </c>
+      <c r="X74" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>468</v>
+      </c>
+      <c r="J75" t="s">
+        <v>469</v>
+      </c>
+      <c r="K75" t="s">
+        <v>470</v>
+      </c>
+      <c r="L75" t="s">
+        <v>471</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>472</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" t="s">
+        <v>475</v>
+      </c>
+      <c r="K76" t="s">
+        <v>476</v>
+      </c>
+      <c r="L76" t="s">
+        <v>477</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>479</v>
+      </c>
+      <c r="J77" t="s">
+        <v>480</v>
+      </c>
+      <c r="K77" t="s">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s">
+        <v>482</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>472</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>483</v>
+      </c>
+      <c r="X77" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>486</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>487</v>
+      </c>
+      <c r="J78" t="s">
+        <v>488</v>
+      </c>
+      <c r="K78" t="s">
+        <v>489</v>
+      </c>
+      <c r="L78" t="s">
+        <v>490</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>472</v>
+      </c>
+      <c r="O78" t="s">
+        <v>331</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>492</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>493</v>
+      </c>
+      <c r="J79" t="s">
+        <v>494</v>
+      </c>
+      <c r="K79" t="s">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s">
+        <v>496</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>497</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>498</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>499</v>
+      </c>
+      <c r="J80" t="s">
+        <v>500</v>
+      </c>
+      <c r="K80" t="s">
+        <v>501</v>
+      </c>
+      <c r="L80" t="s">
+        <v>502</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>497</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>503</v>
+      </c>
+      <c r="X80" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>506</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>507</v>
+      </c>
+      <c r="J81" t="s">
+        <v>508</v>
+      </c>
+      <c r="K81" t="s">
+        <v>509</v>
+      </c>
+      <c r="L81" t="s">
+        <v>510</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>511</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>513</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>514</v>
+      </c>
+      <c r="J82" t="s">
+        <v>515</v>
+      </c>
+      <c r="K82" t="s">
+        <v>516</v>
+      </c>
+      <c r="L82" t="s">
+        <v>517</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>511</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>519</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>520</v>
+      </c>
+      <c r="J83" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83" t="s">
+        <v>522</v>
+      </c>
+      <c r="L83" t="s">
+        <v>523</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>511</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>524</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>525</v>
+      </c>
+      <c r="J84" t="s">
+        <v>526</v>
+      </c>
+      <c r="K84" t="s">
+        <v>527</v>
+      </c>
+      <c r="L84" t="s">
+        <v>528</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>530</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>531</v>
+      </c>
+      <c r="J85" t="s">
+        <v>532</v>
+      </c>
+      <c r="K85" t="s">
+        <v>533</v>
+      </c>
+      <c r="L85" t="s">
+        <v>534</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>535</v>
+      </c>
+      <c r="O85" t="s">
+        <v>294</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>538</v>
+      </c>
+      <c r="J86" t="s">
+        <v>539</v>
+      </c>
+      <c r="K86" t="s">
+        <v>540</v>
+      </c>
+      <c r="L86" t="s">
+        <v>541</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>542</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>543</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>544</v>
+      </c>
+      <c r="J87" t="s">
+        <v>545</v>
+      </c>
+      <c r="K87" t="s">
+        <v>546</v>
+      </c>
+      <c r="L87" t="s">
+        <v>547</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>542</v>
+      </c>
+      <c r="O87" t="s">
+        <v>331</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>548</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>549</v>
+      </c>
+      <c r="J88" t="s">
+        <v>550</v>
+      </c>
+      <c r="K88" t="s">
+        <v>551</v>
+      </c>
+      <c r="L88" t="s">
+        <v>552</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>553</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>555</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>556</v>
+      </c>
+      <c r="J89" t="s">
+        <v>557</v>
+      </c>
+      <c r="K89" t="s">
+        <v>558</v>
+      </c>
+      <c r="L89" t="s">
+        <v>559</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>560</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>561</v>
+      </c>
+      <c r="J90" t="s">
+        <v>562</v>
+      </c>
+      <c r="K90" t="s">
+        <v>563</v>
+      </c>
+      <c r="L90" t="s">
+        <v>564</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>553</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>566</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>567</v>
+      </c>
+      <c r="J91" t="s">
+        <v>568</v>
+      </c>
+      <c r="K91" t="s">
+        <v>569</v>
+      </c>
+      <c r="L91" t="s">
+        <v>570</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>571</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>572</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>573</v>
+      </c>
+      <c r="J92" t="s">
+        <v>574</v>
+      </c>
+      <c r="K92" t="s">
+        <v>575</v>
+      </c>
+      <c r="L92" t="s">
+        <v>576</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>577</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>579</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>580</v>
+      </c>
+      <c r="J93" t="s">
+        <v>581</v>
+      </c>
+      <c r="K93" t="s">
+        <v>582</v>
+      </c>
+      <c r="L93" t="s">
+        <v>583</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>577</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62605</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>584</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>585</v>
+      </c>
+      <c r="J94" t="s">
+        <v>586</v>
+      </c>
+      <c r="K94" t="s">
+        <v>587</v>
+      </c>
+      <c r="L94" t="s">
+        <v>588</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>577</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
